--- a/tesis_doctorado/datav2023/base_organizadoresv2023.xlsx
+++ b/tesis_doctorado/datav2023/base_organizadoresv2023.xlsx
@@ -30455,6 +30455,9 @@
           <t>Costa Rica</t>
         </is>
       </c>
+      <c r="E577">
+        <v>1</v>
+      </c>
     </row>
     <row r="578">
       <c r="A578">
@@ -30468,6 +30471,9 @@
           <t>Costa Rica</t>
         </is>
       </c>
+      <c r="E578">
+        <v>1</v>
+      </c>
     </row>
     <row r="579">
       <c r="A579">
@@ -30481,6 +30487,9 @@
           <t>Costa Rica</t>
         </is>
       </c>
+      <c r="E579">
+        <v>1</v>
+      </c>
     </row>
     <row r="580">
       <c r="A580">
@@ -30494,6 +30503,9 @@
           <t>Costa Rica</t>
         </is>
       </c>
+      <c r="E580">
+        <v>1</v>
+      </c>
     </row>
     <row r="581">
       <c r="A581">
@@ -30506,6 +30518,9 @@
         <is>
           <t>Costa Rica</t>
         </is>
+      </c>
+      <c r="E581">
+        <v>1</v>
       </c>
     </row>
     <row r="582">
